--- a/Documentation/WebTours_Профиль_нагрузки.xlsx
+++ b/Documentation/WebTours_Профиль_нагрузки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeT\Desktop\lr_hw\Documention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeT\Desktop\lr_hw\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB83963B-3743-46CA-824E-73AC423A0E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA57317-02A4-4FCE-805C-CD032ED1791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный отчет" sheetId="7" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="98">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -328,24 +328,9 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -536,18 +521,32 @@
   </si>
   <si>
     <t>UC06_registre_user</t>
+  </si>
+  <si>
+    <t>Профиль для 10 пользаков</t>
+  </si>
+  <si>
+    <t>Поиск максимума 4 ступень</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1485,87 +1484,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1587,46 +1606,42 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1636,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1644,20 +1659,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1681,38 +1696,37 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="80"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1728,74 +1742,103 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="100" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="100" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="120">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% — акцент1 4" xfId="82" xr:uid="{1A4317A8-35AC-49BF-9653-016D95D89CD9}"/>
+    <cellStyle name="20% — акцент1 5" xfId="102" xr:uid="{6741A730-A83E-4ACC-B0F6-B7B625C336CA}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент2 4" xfId="85" xr:uid="{023E333F-18B5-431D-B1F1-D5FF5D04F1FE}"/>
+    <cellStyle name="20% — акцент2 5" xfId="105" xr:uid="{56E8B761-B9DE-444A-A44F-E11482EAA7AF}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% — акцент3 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="20% — акцент3 4" xfId="88" xr:uid="{C74DE236-25A5-4870-A862-C0AD7ADA7A87}"/>
+    <cellStyle name="20% — акцент3 5" xfId="108" xr:uid="{89281FF2-3504-4440-968B-0FC6F1B0C932}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% — акцент4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент4 4" xfId="91" xr:uid="{2273ADC8-B9C9-4E76-A7F1-77EEBD93836A}"/>
+    <cellStyle name="20% — акцент4 5" xfId="111" xr:uid="{DFD3CDDC-A1A3-42BC-9173-BEDFC33D9924}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% — акцент5 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% — акцент5 4" xfId="94" xr:uid="{47D2E381-6CE8-4B8B-BC4B-31EE332DC598}"/>
+    <cellStyle name="20% — акцент5 5" xfId="114" xr:uid="{D6407D65-0EBC-4444-9431-D28394F6CEC2}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="20% — акцент6 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% — акцент6 4" xfId="97" xr:uid="{3876E261-FB05-4410-8031-276EC65E4019}"/>
+    <cellStyle name="20% — акцент6 5" xfId="117" xr:uid="{830F0944-3815-4A08-8CA2-7FC0AE03AF47}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="40% — акцент1 4" xfId="83" xr:uid="{9F890FE9-6958-4A95-8BBF-E87CA90F12AE}"/>
+    <cellStyle name="40% — акцент1 5" xfId="103" xr:uid="{52364D0E-ECBD-453E-8BAC-EA53F3D3BB3D}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент2 4" xfId="86" xr:uid="{FC3B9A63-EED5-47E5-941F-540FA24AF5E1}"/>
+    <cellStyle name="40% — акцент2 5" xfId="106" xr:uid="{9FFFABB1-C41F-4F4C-89B8-E421628D9E62}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="40% — акцент3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="40% — акцент3 4" xfId="89" xr:uid="{23F68F3C-DA54-49A1-824D-3A79B30777AE}"/>
+    <cellStyle name="40% — акцент3 5" xfId="109" xr:uid="{D547C549-0E50-4AB5-AE54-5F27FC80CCB1}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="40% — акцент4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="40% — акцент4 4" xfId="92" xr:uid="{3EC8E87B-52D2-4970-ADA7-505C80078CAD}"/>
+    <cellStyle name="40% — акцент4 5" xfId="112" xr:uid="{8322ACB1-19AC-4D1B-9A58-4104F910138E}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="40% — акцент5 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="40% — акцент5 4" xfId="95" xr:uid="{D53EB58F-BDF3-4D4D-970E-30C62E28D4DE}"/>
+    <cellStyle name="40% — акцент5 5" xfId="115" xr:uid="{2900FB1C-F8EA-4374-849D-7168119698BF}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="40% — акцент6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="40% — акцент6 4" xfId="98" xr:uid="{28D50FCC-A46C-4DD7-BB3B-72B483B16176}"/>
+    <cellStyle name="40% — акцент6 5" xfId="118" xr:uid="{51D5A1EF-15AC-4B55-B674-4FA558F97348}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="60% — акцент1 3" xfId="84" xr:uid="{6AB092CA-3BD7-4E79-B907-0A04185854DC}"/>
+    <cellStyle name="60% — акцент1 4" xfId="104" xr:uid="{AEF5B802-A90E-475F-8463-020DBF44F050}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="60% — акцент2 3" xfId="87" xr:uid="{EE5EE960-DC44-48A0-8718-3D8444A32EE5}"/>
+    <cellStyle name="60% — акцент2 4" xfId="107" xr:uid="{EE66CCD0-E23E-485F-81A5-86B21C0973FA}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="60% — акцент3 3" xfId="90" xr:uid="{547B6D1A-58CE-49C6-8545-2847B6A64FBA}"/>
+    <cellStyle name="60% — акцент3 4" xfId="110" xr:uid="{4B468A1D-DC88-46D6-965A-6F4A356D3B94}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="60% — акцент4 3" xfId="93" xr:uid="{F80F5FF0-8442-4C15-A945-F409142838A7}"/>
+    <cellStyle name="60% — акцент4 4" xfId="113" xr:uid="{DBD1A543-A608-412A-AA4E-7D3762946CCF}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="60% — акцент5 3" xfId="96" xr:uid="{4D6F1C2B-A3C9-47C3-91D0-B2B32D66F1F2}"/>
+    <cellStyle name="60% — акцент5 4" xfId="116" xr:uid="{45032352-2179-40FD-96BE-D219BD621250}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="60% — акцент6 3" xfId="99" xr:uid="{09EBCDCE-ED0C-4FB9-AC95-F419543E5D31}"/>
+    <cellStyle name="60% — акцент6 4" xfId="119" xr:uid="{C87E2406-5778-45C7-91D0-2355256235AF}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1820,12 +1863,14 @@
     <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Обычный 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Обычный 6" xfId="80" xr:uid="{2337F9F9-DF7D-4E54-88B4-B8FDBB317C4D}"/>
+    <cellStyle name="Обычный 7" xfId="100" xr:uid="{4E8B5321-C0F9-4A32-9BBE-8D45B1589946}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Примечание 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Примечание 5" xfId="81" xr:uid="{9EEF47FF-FD35-402F-BFC1-AF9A72BCDA04}"/>
+    <cellStyle name="Примечание 6" xfId="101" xr:uid="{11A62575-2F2E-4BFA-A4A7-C06CD1BF098B}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1836,22 +1881,22 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2559,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB29804-BD48-4335-A5C9-5073F2DADE6E}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,80 +2634,80 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>93</v>
+      <c r="I1" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="45" t="s">
+      <c r="V1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="40">
+      <c r="B2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="38">
         <v>1</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="40">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -2670,7 +2715,7 @@
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>64</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <f>60/E2*C2</f>
         <v>0.9375</v>
       </c>
@@ -2678,66 +2723,66 @@
         <f t="shared" ref="G2:G26" si="0">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <f>D2*F2*G2</f>
         <v>56.25</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="I2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>148.99358974358972</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="17">
         <v>3.5</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="34">
         <v>12</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="35">
         <f t="shared" ref="P2:P7" si="1">N2+O2</f>
         <v>15.5</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="23">
         <v>64</v>
       </c>
-      <c r="R2" s="50">
+      <c r="R2" s="48">
         <v>3</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="49">
         <f t="shared" ref="S2:S7" si="2">R2/W$2</f>
         <v>0.3</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="65">
         <f t="shared" ref="T2:T7" si="3">60/(Q2)</f>
         <v>0.9375</v>
       </c>
-      <c r="U2" s="54">
+      <c r="U2" s="52">
         <v>20</v>
       </c>
-      <c r="V2" s="55">
+      <c r="V2" s="53">
         <f t="shared" ref="V2:V7" si="4">ROUND(R2*T2*U2,0)</f>
         <v>56</v>
       </c>
-      <c r="W2" s="29">
+      <c r="W2" s="27">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
         <v>1</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="41">
         <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -2745,7 +2790,7 @@
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>64</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f>60/E3*C3</f>
         <v>0.9375</v>
       </c>
@@ -2753,63 +2798,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f>D3*F3*G3</f>
         <v>56.25</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>96.25</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>9</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="34">
         <v>15</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="35">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="23">
         <v>52</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="48">
         <v>1</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="49">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="T3" s="67">
+      <c r="T3" s="65">
         <f t="shared" si="3"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="U3" s="54">
+      <c r="U3" s="52">
         <v>20</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="53">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="W3" s="29"/>
+      <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="B4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="38">
         <v>1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="41">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -2817,7 +2862,7 @@
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
         <v>64</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F26" si="5">60/E4*C4</f>
         <v>0.9375</v>
       </c>
@@ -2825,63 +2870,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <f t="shared" ref="H4:H30" si="6">D4*F4*G4</f>
         <v>56.25</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>108.99358974358972</v>
       </c>
-      <c r="M4" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="19">
+      <c r="M4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="17">
         <v>3.3</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="34">
         <v>10</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="35">
         <f t="shared" si="1"/>
         <v>13.3</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="23">
         <v>39</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="48">
         <v>1</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="49">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="65">
         <f t="shared" si="3"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="U4" s="54">
+      <c r="U4" s="52">
         <v>20</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4" s="53">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="W4" s="29"/>
+      <c r="W4" s="27"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="41">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -2889,7 +2934,7 @@
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>64</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
@@ -2897,63 +2942,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f t="shared" si="6"/>
         <v>56.25</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>96.25</v>
       </c>
-      <c r="M5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="19">
+      <c r="M5" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="17">
         <v>3.4</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="34">
         <v>20</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="35">
         <f t="shared" si="1"/>
         <v>23.4</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="23">
         <v>90</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="48">
         <v>3</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="49">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="T5" s="67">
+      <c r="T5" s="65">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="52">
         <v>20</v>
       </c>
-      <c r="V5" s="55">
+      <c r="V5" s="53">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="W5" s="29"/>
+      <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="38">
         <v>1</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <f t="shared" ref="D6:D26" si="7">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -2961,7 +3006,7 @@
         <f t="shared" ref="E6:E26" si="8">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>64</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
@@ -2969,63 +3014,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f t="shared" si="6"/>
         <v>56.25</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>56.25</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <v>3.2</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="34">
         <v>5</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="35">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="23">
         <v>45</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="48">
         <v>1</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="49">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="65">
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="U6" s="54">
+      <c r="U6" s="52">
         <v>20</v>
       </c>
-      <c r="V6" s="55">
+      <c r="V6" s="53">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="27"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="63">
         <v>1</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="41">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3033,7 +3078,7 @@
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
@@ -3041,63 +3086,63 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f t="shared" si="6"/>
         <v>56.25</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>23.076923076923073</v>
       </c>
-      <c r="M7" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="M7" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="17">
         <v>1.6</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="36">
         <v>5</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="35">
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="23">
         <v>400</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="48">
         <v>1</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="49">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="T7" s="67">
+      <c r="T7" s="65">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="52">
         <v>20</v>
       </c>
-      <c r="V7" s="55">
+      <c r="V7" s="53">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="27"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>1</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="41">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3105,7 +3150,7 @@
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
@@ -3113,53 +3158,53 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <f t="shared" si="6"/>
         <v>56.25</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>89.743589743589737</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="56">
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="54">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="63"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="71">
+      <c r="T8" s="61"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="69">
         <f>SUM(V2:V7)</f>
         <v>180</v>
       </c>
-      <c r="W8" s="30"/>
+      <c r="W8" s="28"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <f t="shared" si="5"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3167,36 +3212,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <f t="shared" si="6"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="15">
         <v>179.7628205128205</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <f t="shared" si="5"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3204,37 +3249,37 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <f t="shared" si="6"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="15">
         <v>30.76923076923077</v>
       </c>
-      <c r="Q10" s="70"/>
+      <c r="Q10" s="68"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <f t="shared" si="5"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3242,36 +3287,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <f t="shared" si="6"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="15">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f t="shared" si="5"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3279,36 +3324,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f t="shared" si="6"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="15">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="28">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <f t="shared" si="5"/>
         <v>1.1538461538461537</v>
       </c>
@@ -3316,36 +3361,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <f t="shared" si="6"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="15">
         <v>96.25</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="A14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="21">
         <v>1</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f t="shared" si="5"/>
         <v>1.5384615384615385</v>
       </c>
@@ -3353,36 +3398,36 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <f t="shared" si="6"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="15">
         <v>987.87820512820485</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="A15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f t="shared" si="5"/>
         <v>1.5384615384615385</v>
       </c>
@@ -3390,30 +3435,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <f t="shared" si="6"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="A16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <f t="shared" si="5"/>
         <v>1.5384615384615385</v>
       </c>
@@ -3421,30 +3466,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <f t="shared" si="6"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="A17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f t="shared" si="5"/>
         <v>1.5384615384615385</v>
       </c>
@@ -3452,22 +3497,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <f t="shared" si="6"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="40">
+      <c r="B18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="38">
         <v>1</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="40">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3475,7 +3520,7 @@
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
@@ -3483,22 +3528,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="40">
+      <c r="A19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="41">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3506,7 +3551,7 @@
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
@@ -3514,22 +3559,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>1</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3537,7 +3582,7 @@
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
@@ -3545,22 +3590,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="A21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3568,7 +3613,7 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3576,22 +3621,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
+      <c r="A22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
         <v>1</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3599,7 +3644,7 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3607,22 +3652,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>64</v>
+      <c r="A23" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="65">
+        <v>62</v>
+      </c>
+      <c r="C23" s="63">
         <v>1</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3630,7 +3675,7 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3638,22 +3683,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="21">
         <v>1</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3661,7 +3706,7 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3669,22 +3714,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="21">
         <v>1</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3692,7 +3737,7 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3700,22 +3745,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>1</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3723,7 +3768,7 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3731,22 +3776,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="15">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="23">
+      <c r="B27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="21">
         <v>1</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="29">
         <f>VLOOKUP(A27,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3754,7 +3799,7 @@
         <f>VLOOKUP(A27,$M$1:$X$8,5,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f>60/E27*C27</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3762,22 +3807,22 @@
         <f>VLOOKUP(A27,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="15">
         <f t="shared" si="6"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23">
+      <c r="B28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21">
         <v>1</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="27">
         <f>VLOOKUP(A28,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3785,7 +3830,7 @@
         <f>VLOOKUP(A28,$M$1:$X$8,5,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <f>60/E28*C28</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3793,22 +3838,22 @@
         <f>VLOOKUP(A28,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <f t="shared" si="6"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="21">
         <v>1</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="27">
         <f>VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3816,7 +3861,7 @@
         <f>VLOOKUP(A29,$M$1:$X$8,5,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <f>60/E29*C29</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3824,22 +3869,22 @@
         <f>VLOOKUP(A29,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="15">
         <f t="shared" si="6"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
         <f>VLOOKUP(A30,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -3847,7 +3892,7 @@
         <f>VLOOKUP(A30,$M$1:$X$8,5,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <f>60/E30*C30</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3855,477 +3900,477 @@
         <f>VLOOKUP(A30,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="15">
         <f t="shared" si="6"/>
         <v>26.666666666666664</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="76"/>
+      <c r="A33" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="A34" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="58">
+      <c r="B35" s="56">
         <v>520</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="35">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)*3</f>
         <v>539.28846153846143</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <f t="shared" ref="D35:D47" si="9">1-B35/C35</f>
         <v>3.5766501444210452E-2</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="62" t="str">
+      <c r="E35" s="30"/>
+      <c r="F35" s="60" t="str">
         <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
         <v>open_webtours</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="32">
         <f t="shared" ref="G35:G46" si="10">C35/3</f>
         <v>179.76282051282047</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="21">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
         <v>181</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="19">
         <f>1-G35/H35</f>
         <v>6.8352457855223037E-3</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="58">
+      <c r="A36" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="56">
         <v>422</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="35">
         <f t="shared" ref="C36:C46" si="11">GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
         <v>446.98076923076917</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <f t="shared" si="9"/>
         <v>5.5887794174590111E-2</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="62" t="str">
+      <c r="E36" s="30"/>
+      <c r="F36" s="60" t="str">
         <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="32">
         <f t="shared" si="10"/>
         <v>148.99358974358972</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="21">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="19">
         <f t="shared" ref="I36:I46" si="12">1-G36/H36</f>
         <v>6.7094017094018188E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="58">
+      <c r="A37" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="56">
         <v>305</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="35">
         <f t="shared" si="11"/>
         <v>288.75</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <f t="shared" si="9"/>
         <v>-5.6277056277056259E-2</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="62" t="str">
+      <c r="E37" s="30"/>
+      <c r="F37" s="60" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>click_flights_page</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="32">
         <f t="shared" si="10"/>
         <v>96.25</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="21">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
         <v>96</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="19">
         <f t="shared" si="12"/>
         <v>-2.6041666666667407E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="58">
+      <c r="B38" s="56">
         <v>282</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="35">
         <f t="shared" si="11"/>
         <v>288.75</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="18">
         <f t="shared" si="9"/>
         <v>2.3376623376623384E-2</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="62" t="str">
+      <c r="E38" s="30"/>
+      <c r="F38" s="60" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>search_flight</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="32">
         <f t="shared" si="10"/>
         <v>96.25</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="21">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
         <v>96</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <f t="shared" si="12"/>
         <v>-2.6041666666667407E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="58">
+      <c r="B39" s="56">
         <v>270</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="35">
         <f t="shared" si="11"/>
         <v>288.75</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="18">
         <f t="shared" si="9"/>
         <v>6.4935064935064957E-2</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="62" t="str">
+      <c r="E39" s="30"/>
+      <c r="F39" s="60" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>select_plane</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="32">
         <f t="shared" si="10"/>
         <v>96.25</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="21">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
         <v>96</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="19">
         <f t="shared" si="12"/>
         <v>-2.6041666666667407E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="58">
+      <c r="B40" s="56">
         <v>175</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="35">
         <f t="shared" si="11"/>
         <v>168.75</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <f t="shared" si="9"/>
         <v>-3.7037037037036979E-2</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="62" t="str">
+      <c r="E40" s="30"/>
+      <c r="F40" s="60" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>payments_form</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="32">
         <f t="shared" si="10"/>
         <v>56.25</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="21">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>56</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="19">
         <f t="shared" si="12"/>
         <v>-4.4642857142858094E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="58">
+      <c r="B41" s="56">
         <v>280</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="35">
         <f t="shared" si="11"/>
         <v>269.23076923076923</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="18">
         <f t="shared" si="9"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="62" t="str">
+      <c r="E41" s="37"/>
+      <c r="F41" s="60" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>open_booking_pages</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="32">
         <f t="shared" si="10"/>
         <v>89.743589743589737</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="21">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="19">
         <f t="shared" si="12"/>
         <v>2.8490028490029129E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="58">
+      <c r="B42" s="56">
         <v>73</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="35">
         <f t="shared" si="11"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="18">
         <f t="shared" si="9"/>
         <v>-5.4444444444444517E-2</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="62" t="str">
+      <c r="E42" s="30"/>
+      <c r="F42" s="60" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>delete_booking</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="32">
         <f t="shared" si="10"/>
         <v>23.076923076923077</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="21">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="19">
         <f t="shared" si="12"/>
         <v>-3.3444816053511683E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="58">
+      <c r="B43" s="56">
         <v>326</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="35">
         <f t="shared" si="11"/>
         <v>326.98076923076917</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <f t="shared" si="9"/>
         <v>2.9994706816441896E-3</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="62" t="str">
+      <c r="E43" s="30"/>
+      <c r="F43" s="60" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="32">
         <f t="shared" si="10"/>
         <v>108.99358974358972</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="21">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>109</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="19">
         <f t="shared" si="12"/>
         <v>5.880969183735818E-5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="58">
+      <c r="A44" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="56">
         <v>97</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="35">
         <f t="shared" si="11"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <f t="shared" si="9"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="62" t="str">
+      <c r="E44" s="30"/>
+      <c r="F44" s="60" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>open_reg_page</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="32">
         <f t="shared" si="10"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="21">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="19">
         <f t="shared" si="12"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="58">
+      <c r="A45" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="56">
         <v>97</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="35">
         <f t="shared" si="11"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="18">
         <f t="shared" si="9"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="62" t="str">
+      <c r="E45" s="30"/>
+      <c r="F45" s="60" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>reg_user</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="32">
         <f t="shared" si="10"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="21">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="19">
         <f t="shared" si="12"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="58">
+      <c r="A46" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="56">
         <v>97</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="35">
         <f t="shared" si="11"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <f t="shared" si="9"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="62" t="str">
+      <c r="E46" s="30"/>
+      <c r="F46" s="60" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>reg_user</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="32">
         <f t="shared" si="10"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="21">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="19">
         <f t="shared" si="12"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="59">
+      <c r="B47" s="57">
         <f>SUM(B35:B46)</f>
         <v>2944</v>
       </c>
-      <c r="C47" s="60">
+      <c r="C47" s="58">
         <f>SUM(C35:C46)</f>
         <v>2963.6346153846148</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <f t="shared" si="9"/>
         <v>6.6251808784689725E-3</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I48" s="24"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="31"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4352,119 +4397,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>71</v>
+      <c r="A1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="60" t="str">
         <f>'Автоматизированный отчет'!A35</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>84</v>
+      <c r="B2" s="66" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="str">
+      <c r="A3" s="60" t="str">
         <f>'Автоматизированный отчет'!A36</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="str">
+      <c r="A4" s="60" t="str">
         <f>'Автоматизированный отчет'!A37</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>85</v>
+      <c r="B4" s="66" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="60" t="str">
         <f>'Автоматизированный отчет'!A38</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>86</v>
+      <c r="B5" s="66" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="str">
+      <c r="A6" s="60" t="str">
         <f>'Автоматизированный отчет'!A39</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>87</v>
+      <c r="B6" s="66" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="str">
+      <c r="A7" s="60" t="str">
         <f>'Автоматизированный отчет'!A40</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>88</v>
+      <c r="B7" s="66" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="str">
+      <c r="A8" s="60" t="str">
         <f>'Автоматизированный отчет'!A41</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>89</v>
+      <c r="B8" s="66" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="str">
+      <c r="A9" s="60" t="str">
         <f>'Автоматизированный отчет'!A42</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>90</v>
+      <c r="B9" s="66" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="str">
+      <c r="A10" s="60" t="str">
         <f>'Автоматизированный отчет'!A43</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="66" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="str">
+      <c r="A11" s="60" t="str">
         <f>'Автоматизированный отчет'!A44</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>91</v>
+      <c r="B11" s="66" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="str">
+      <c r="A12" s="60" t="str">
         <f>'Автоматизированный отчет'!A45</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>92</v>
+      <c r="B12" s="66" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="str">
+      <c r="A13" s="60" t="str">
         <f>'Автоматизированный отчет'!A46</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>92</v>
+      <c r="B13" s="66" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4522,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,610 +4531,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="C2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E2">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G2">
+        <v>1.073</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.182</v>
+      </c>
+      <c r="E3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.223</v>
+      </c>
+      <c r="H3">
+        <v>96</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <v>0.312</v>
+      </c>
+      <c r="E4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.215</v>
+      </c>
+      <c r="H6">
+        <v>109</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>0.191</v>
+      </c>
+      <c r="D7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E7">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.156</v>
+      </c>
+      <c r="G7">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E8">
+        <v>2.665</v>
+      </c>
+      <c r="F8">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.114</v>
+      </c>
+      <c r="H8">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>0.12</v>
+      </c>
+      <c r="D9">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.42</v>
+      </c>
+      <c r="F9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>181</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.115</v>
+      </c>
+      <c r="H10">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="72">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.17</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
+      </c>
+      <c r="G12">
+        <v>0.114</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.502</v>
+      </c>
+      <c r="F13">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.113</v>
+      </c>
+      <c r="H13">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
         <v>0.39200000000000002</v>
       </c>
-      <c r="D2" s="72">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="E2" s="72">
+      <c r="D14">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F14">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D15">
+        <v>1.018</v>
+      </c>
+      <c r="E15">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.316</v>
+      </c>
+      <c r="G15">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.966</v>
+      </c>
+      <c r="F16">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="H16">
+        <v>56</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D17">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.08</v>
+      </c>
+      <c r="G17">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D18">
+        <v>1.02</v>
+      </c>
+      <c r="E18">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G18">
+        <v>1.075</v>
+      </c>
+      <c r="H18">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>0.499</v>
+      </c>
+      <c r="D19">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E19">
         <v>3.3359999999999999</v>
       </c>
-      <c r="F2" s="72">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G2" s="72">
-        <v>1.073</v>
-      </c>
-      <c r="H2" s="72">
-        <v>180</v>
-      </c>
-      <c r="I2" s="72">
-        <v>0</v>
-      </c>
-      <c r="J2" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="72">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D3" s="72">
-        <v>0.182</v>
-      </c>
-      <c r="E3" s="72">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="F3" s="72">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G3" s="72">
-        <v>0.223</v>
-      </c>
-      <c r="H3" s="72">
-        <v>96</v>
-      </c>
-      <c r="I3" s="72">
-        <v>0</v>
-      </c>
-      <c r="J3" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="72">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="72">
-        <v>0.312</v>
-      </c>
-      <c r="E4" s="72">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F4" s="72">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="G4" s="72">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="H4" s="72">
-        <v>23</v>
-      </c>
-      <c r="I4" s="72">
-        <v>0</v>
-      </c>
-      <c r="J4" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="72">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D5" s="72">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E5" s="72">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="F5" s="72">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G5" s="72">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H5" s="72">
-        <v>150</v>
-      </c>
-      <c r="I5" s="72">
-        <v>0</v>
-      </c>
-      <c r="J5" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="72">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D6" s="72">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E6" s="72">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="F6" s="72">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G6" s="72">
-        <v>0.215</v>
-      </c>
-      <c r="H6" s="72">
-        <v>109</v>
-      </c>
-      <c r="I6" s="72">
-        <v>0</v>
-      </c>
-      <c r="J6" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="72">
-        <v>0.191</v>
-      </c>
-      <c r="D7" s="72">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E7" s="72">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="F7" s="72">
-        <v>0.156</v>
-      </c>
-      <c r="G7" s="72">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="H7" s="72">
-        <v>90</v>
-      </c>
-      <c r="I7" s="72">
-        <v>0</v>
-      </c>
-      <c r="J7" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="72">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="D8" s="72">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E8" s="72">
-        <v>2.665</v>
-      </c>
-      <c r="F8" s="72">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="G8" s="72">
-        <v>0.114</v>
-      </c>
-      <c r="H8" s="72">
+      <c r="F19">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H19">
         <v>31</v>
       </c>
-      <c r="I8" s="72">
-        <v>0</v>
-      </c>
-      <c r="J8" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="72">
-        <v>0.12</v>
-      </c>
-      <c r="D9" s="72">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E9" s="72">
-        <v>0.42</v>
-      </c>
-      <c r="F9" s="72">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G9" s="72">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H9" s="72">
-        <v>181</v>
-      </c>
-      <c r="I9" s="72">
-        <v>0</v>
-      </c>
-      <c r="J9" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="72">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D10" s="72">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E10" s="72">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F10" s="72">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G10" s="72">
-        <v>0.115</v>
-      </c>
-      <c r="H10" s="72">
-        <v>56</v>
-      </c>
-      <c r="I10" s="72">
-        <v>0</v>
-      </c>
-      <c r="J10" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="72">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D11" s="72">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="E11" s="72">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="F11" s="72">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G11" s="72">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="H11" s="72">
-        <v>31</v>
-      </c>
-      <c r="I11" s="72">
-        <v>0</v>
-      </c>
-      <c r="J11" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="72">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="D12" s="72">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E12" s="72">
-        <v>0.17</v>
-      </c>
-      <c r="F12" s="72">
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="72">
-        <v>0.114</v>
-      </c>
-      <c r="H12" s="72">
-        <v>96</v>
-      </c>
-      <c r="I12" s="72">
-        <v>0</v>
-      </c>
-      <c r="J12" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="72">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="D13" s="72">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E13" s="72">
-        <v>0.502</v>
-      </c>
-      <c r="F13" s="72">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G13" s="72">
-        <v>0.113</v>
-      </c>
-      <c r="H13" s="72">
-        <v>96</v>
-      </c>
-      <c r="I13" s="72">
-        <v>0</v>
-      </c>
-      <c r="J13" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="72">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D14" s="72">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="E14" s="72">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="F14" s="72">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G14" s="72">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="H14" s="72">
-        <v>3</v>
-      </c>
-      <c r="I14" s="72">
-        <v>0</v>
-      </c>
-      <c r="J14" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="72">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="D15" s="72">
-        <v>1.018</v>
-      </c>
-      <c r="E15" s="72">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="F15" s="72">
-        <v>0.316</v>
-      </c>
-      <c r="G15" s="72">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="H15" s="72">
-        <v>40</v>
-      </c>
-      <c r="I15" s="72">
-        <v>0</v>
-      </c>
-      <c r="J15" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="72">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="D16" s="72">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E16" s="72">
-        <v>1.966</v>
-      </c>
-      <c r="F16" s="72">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="G16" s="72">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="H16" s="72">
-        <v>56</v>
-      </c>
-      <c r="I16" s="72">
-        <v>0</v>
-      </c>
-      <c r="J16" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="72">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D17" s="72">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="E17" s="72">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="F17" s="72">
-        <v>0.08</v>
-      </c>
-      <c r="G17" s="72">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="H17" s="72">
-        <v>27</v>
-      </c>
-      <c r="I17" s="72">
-        <v>0</v>
-      </c>
-      <c r="J17" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="72">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="D18" s="72">
-        <v>1.02</v>
-      </c>
-      <c r="E18" s="72">
-        <v>2.9889999999999999</v>
-      </c>
-      <c r="F18" s="72">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="G18" s="72">
-        <v>1.075</v>
-      </c>
-      <c r="H18" s="72">
-        <v>23</v>
-      </c>
-      <c r="I18" s="72">
-        <v>0</v>
-      </c>
-      <c r="J18" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="72">
-        <v>0.499</v>
-      </c>
-      <c r="D19" s="72">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E19" s="72">
-        <v>3.3359999999999999</v>
-      </c>
-      <c r="F19" s="72">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="G19" s="72">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="H19" s="72">
-        <v>31</v>
-      </c>
-      <c r="I19" s="72">
-        <v>0</v>
-      </c>
-      <c r="J19" s="72">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
@@ -5107,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,7 +5164,7 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="1.42578125" customWidth="1"/>
     <col min="12" max="12" width="40.28515625" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
@@ -5130,13 +5175,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="E9" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5162,16 +5207,17 @@
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4">
-        <v>368</v>
+      <c r="G12" s="75">
+        <f>'Автоматизированный отчет'!C36</f>
+        <v>446.98076923076917</v>
       </c>
       <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
+        <f>'Автоматизированный отчет'!H36*3</f>
+        <v>450</v>
       </c>
       <c r="I12" s="5">
         <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
+        <v>6.7094017094018188E-3</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -5181,16 +5227,17 @@
       <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="4">
-        <v>251</v>
+      <c r="G13" s="75">
+        <f>'Автоматизированный отчет'!C38</f>
+        <v>288.75</v>
       </c>
       <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
+        <f>'Автоматизированный отчет'!H38*3</f>
+        <v>288</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
+        <v>-2.6041666666667407E-3</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -5200,16 +5247,17 @@
       <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="4">
-        <v>251</v>
+      <c r="G14" s="75">
+        <f>'Автоматизированный отчет'!C39</f>
+        <v>288.75</v>
       </c>
       <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
+        <f>'Автоматизированный отчет'!H39*3</f>
+        <v>288</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
+        <v>-2.6041666666667407E-3</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5219,16 +5267,17 @@
       <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4">
-        <v>175</v>
+      <c r="G15" s="75">
+        <f>'Автоматизированный отчет'!C40</f>
+        <v>168.75</v>
       </c>
       <c r="H15" s="3">
-        <f>56*3</f>
+        <f>'Автоматизированный отчет'!H40*3</f>
         <v>168</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
+        <v>-4.4642857142858094E-3</v>
       </c>
     </row>
     <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -5238,66 +5287,69 @@
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4">
-        <v>159</v>
+      <c r="G16" s="75">
+        <f>'Автоматизированный отчет'!C41</f>
+        <v>269.23076923076923</v>
       </c>
       <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
+        <f>'Автоматизированный отчет'!H41*3</f>
+        <v>270</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>2.8490028490029129E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="4">
-        <v>73</v>
+      <c r="G17" s="75">
+        <f>'Автоматизированный отчет'!C42</f>
+        <v>69.230769230769226</v>
       </c>
       <c r="H17" s="3">
-        <f>25*3</f>
-        <v>75</v>
+        <f>'Автоматизированный отчет'!H42*3</f>
+        <v>69</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-3.3444816053511683E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="4">
-        <v>326</v>
-      </c>
-      <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
+      <c r="G18" s="75">
+        <f>'Автоматизированный отчет'!C43</f>
+        <v>326.98076923076917</v>
+      </c>
+      <c r="H18" s="76">
+        <f>'Автоматизированный отчет'!H43*3</f>
+        <v>327</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+        <v>5.880969183735818E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -5313,155 +5365,251 @@
       <c r="I25" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="L25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
+      <c r="G26" s="79">
+        <f>'Автоматизированный отчет'!C36*4</f>
+        <v>1787.9230769230767</v>
       </c>
       <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
+        <f>M26*3</f>
+        <v>1815</v>
+      </c>
+      <c r="I26" s="10">
         <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
+        <v>1.4918414918415057E-2</v>
+      </c>
+      <c r="L26" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="77">
+        <v>605</v>
+      </c>
+      <c r="N26" s="60">
+        <v>0</v>
+      </c>
+      <c r="O26" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
+      <c r="G27" s="79">
+        <f>'Автоматизированный отчет'!C38*4</f>
+        <v>1155</v>
       </c>
       <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
+        <f t="shared" ref="H27:H32" si="1">M27*3</f>
+        <v>1179</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I32" si="2">1-G27/H27</f>
+        <v>2.0356234096692072E-2</v>
+      </c>
+      <c r="L27" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="77">
+        <v>393</v>
+      </c>
+      <c r="N27" s="60">
+        <v>0</v>
+      </c>
+      <c r="O27" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
+      <c r="G28" s="79">
+        <f>'Автоматизированный отчет'!C39*4</f>
+        <v>1155</v>
       </c>
       <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
         <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5345268542199531E-2</v>
+      </c>
+      <c r="L28" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="77">
+        <v>391</v>
+      </c>
+      <c r="N28" s="60">
+        <v>0</v>
+      </c>
+      <c r="O28" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
+      <c r="G29" s="79">
+        <f>'Автоматизированный отчет'!C40*4</f>
+        <v>675</v>
       </c>
       <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
+        <f t="shared" si="1"/>
+        <v>687</v>
       </c>
       <c r="I29" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7467248908296984E-2</v>
+      </c>
+      <c r="L29" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="77">
+        <v>229</v>
+      </c>
+      <c r="N29" s="60">
+        <v>0</v>
+      </c>
+      <c r="O29" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="79">
+        <f>'Автоматизированный отчет'!C41*4</f>
+        <v>1076.9230769230769</v>
+      </c>
+      <c r="H30" s="9">
         <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
+        <v>1092</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3806706114398493E-2</v>
+      </c>
+      <c r="L30" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="78">
+        <v>364</v>
+      </c>
+      <c r="N30" s="60">
+        <v>0</v>
+      </c>
+      <c r="O30" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="79">
+        <f>'Автоматизированный отчет'!C42*4</f>
+        <v>276.92307692307691</v>
+      </c>
+      <c r="H31" s="9">
         <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
+        <v>282</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8003273322422353E-2</v>
+      </c>
+      <c r="L31" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="78">
+        <v>94</v>
+      </c>
+      <c r="N31" s="60">
+        <v>0</v>
+      </c>
+      <c r="O31" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="79">
+        <f>'Автоматизированный отчет'!C43*4</f>
+        <v>1307.9230769230767</v>
+      </c>
+      <c r="H32" s="9">
         <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3632672003712876E-2</v>
+      </c>
+      <c r="L32" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
+      <c r="M32" s="78">
+        <v>442</v>
+      </c>
+      <c r="N32" s="60">
+        <v>0</v>
+      </c>
+      <c r="O32" s="60">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="E35" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
@@ -5479,233 +5627,240 @@
       <c r="I37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="O37" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
+      <c r="G38" s="79">
+        <f>G26</f>
+        <v>1787.9230769230767</v>
       </c>
       <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
+        <f>M38</f>
+        <v>1787</v>
+      </c>
+      <c r="I38" s="10">
         <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
+        <v>-5.1655116008775259E-4</v>
+      </c>
+      <c r="L38" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1787</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="79">
+        <f t="shared" ref="G39:G44" si="3">G27</f>
+        <v>1155</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:H44" si="4">M39</f>
+        <v>1156</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" ref="I39:I44" si="5">1-G39/H39</f>
+        <v>8.6505190311414459E-4</v>
+      </c>
+      <c r="L39" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1156</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="79">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="4"/>
+        <v>1155</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1155</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="79">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="9">
+        <v>675</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="79">
+        <f t="shared" si="3"/>
+        <v>1076.9230769230769</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="4"/>
+        <v>1076</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="5"/>
+        <v>-8.5787818129823279E-4</v>
+      </c>
+      <c r="L42" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1076</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
+      <c r="G43" s="79">
+        <f t="shared" si="3"/>
+        <v>276.92307692307691</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.3444816053511683E-3</v>
+      </c>
+      <c r="L43" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="M43" s="9">
+        <v>276</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="79">
+        <f t="shared" si="3"/>
+        <v>1307.9230769230767</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="4"/>
+        <v>1309</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="5"/>
+        <v>8.2270670505979471E-4</v>
+      </c>
+      <c r="L44" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
+      <c r="M44" s="9">
+        <v>1309</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
         <v>0</v>
       </c>
     </row>
